--- a/data/dataset_time.xlsx
+++ b/data/dataset_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\A_Insider_trading\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ABFA7F-0E46-4035-8112-EF772F07E7A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C360C7-258C-4FC8-AC55-AC6E3DED3D61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2160" windowWidth="22965" windowHeight="11835" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="12220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>label</t>
   </si>
@@ -129,9 +129,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>求和项:PE</t>
-  </si>
-  <si>
     <t>ps0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -146,6 +143,9 @@
   <si>
     <t>pe1</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和项:Liquidility</t>
   </si>
 </sst>
 </file>
@@ -12817,15 +12817,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>144462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14253,11 +14253,11 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -14408,7 +14408,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="求和项:PE" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="求和项:Liquidility" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -14722,31 +14722,32 @@
   <dimension ref="A3:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="21" max="42" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -14760,578 +14761,578 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="B5" s="3">
-        <v>113.917053548076</v>
+        <v>9.1836036036036005E-4</v>
       </c>
       <c r="C5" s="3">
-        <v>401.53582089361697</v>
+        <v>4.4266666666666602E-4</v>
       </c>
       <c r="D5" s="3">
-        <v>515.45287444169298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.3610270270270261E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>114.787503846153</v>
+        <v>8.2326785714285705E-4</v>
       </c>
       <c r="C6" s="3">
-        <v>427.10410642553097</v>
+        <v>4.1714545454545402E-4</v>
       </c>
       <c r="D6" s="3">
-        <v>541.89161027168393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.2404133116883111E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>116.83537377884601</v>
+        <v>7.7186607142857102E-4</v>
       </c>
       <c r="C7" s="3">
-        <v>438.74009251063802</v>
+        <v>3.7985454545454497E-4</v>
       </c>
       <c r="D7" s="3">
-        <v>555.57546628948398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.1517206168831159E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="3">
-        <v>116.52662267307601</v>
+        <v>7.2575000000000005E-4</v>
       </c>
       <c r="C8" s="3">
-        <v>430.21052944680798</v>
+        <v>3.5734545454545403E-4</v>
       </c>
       <c r="D8" s="3">
-        <v>546.73715211988394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.0830954545454541E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="3">
-        <v>117.315350105769</v>
+        <v>7.0498214285714196E-4</v>
       </c>
       <c r="C9" s="3">
-        <v>442.01761621276597</v>
+        <v>3.4620000000000001E-4</v>
       </c>
       <c r="D9" s="3">
-        <v>559.332966318535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.051182142857142E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>117.733769259615</v>
+        <v>6.6200000000000005E-4</v>
       </c>
       <c r="C10" s="3">
-        <v>441.05879751063799</v>
+        <v>3.38127272727272E-4</v>
       </c>
       <c r="D10" s="3">
-        <v>558.79256677025296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.0001272727272721E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="B11" s="3">
-        <v>118.60470729807599</v>
+        <v>6.4708928571428502E-4</v>
       </c>
       <c r="C11" s="3">
-        <v>437.98036468085098</v>
+        <v>3.3839999999999901E-4</v>
       </c>
       <c r="D11" s="3">
-        <v>556.58507197892698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.8548928571428403E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="3">
-        <v>116.114274298076</v>
+        <v>6.14607142857142E-4</v>
       </c>
       <c r="C12" s="3">
-        <v>431.33504421276598</v>
+        <v>3.3278181818181802E-4</v>
       </c>
       <c r="D12" s="3">
-        <v>547.44931851084198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.4738896103895996E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="B13" s="3">
-        <v>117.777893173077</v>
+        <v>6.0489285714285701E-4</v>
       </c>
       <c r="C13" s="3">
-        <v>430.26502253191398</v>
+        <v>3.3490909090908998E-4</v>
       </c>
       <c r="D13" s="3">
-        <v>548.04291570499095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.3980194805194693E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="B14" s="3">
-        <v>118.562034230769</v>
+        <v>5.6745535714285698E-4</v>
       </c>
       <c r="C14" s="3">
-        <v>426.11937844680801</v>
+        <v>3.7120000000000002E-4</v>
       </c>
       <c r="D14" s="3">
-        <v>544.68141267757699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.38655357142857E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="3">
-        <v>117.76401703846101</v>
+        <v>2.0558839285714199E-3</v>
       </c>
       <c r="C15" s="3">
-        <v>459.09164708510599</v>
+        <v>3.62818181818181E-4</v>
       </c>
       <c r="D15" s="3">
-        <v>576.85566412356695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.4187021103896011E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>119.28990084466</v>
+        <v>3.2138749999999902E-3</v>
       </c>
       <c r="C16" s="3">
-        <v>464.30861623404201</v>
+        <v>3.36363636363636E-4</v>
       </c>
       <c r="D16" s="3">
-        <v>583.598517078702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.5502386363636261E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="B17" s="3">
-        <v>120.74708775728099</v>
+        <v>2.48270535714285E-3</v>
       </c>
       <c r="C17" s="3">
-        <v>459.35002004255301</v>
+        <v>3.5092727272727198E-4</v>
       </c>
       <c r="D17" s="3">
-        <v>580.09710779983402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.8336326298701222E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" s="3">
-        <v>121.502352524271</v>
+        <v>2.0994821428571399E-3</v>
       </c>
       <c r="C18" s="3">
-        <v>463.11037153191501</v>
+        <v>3.4761818181818101E-4</v>
       </c>
       <c r="D18" s="3">
-        <v>584.61272405618604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.4471003246753211E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="B19" s="3">
-        <v>122.70425854368899</v>
+        <v>1.8319999999999901E-3</v>
       </c>
       <c r="C19" s="3">
-        <v>889.95160110638301</v>
+        <v>3.3519999999999899E-4</v>
       </c>
       <c r="D19" s="3">
-        <v>1012.655859650072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.1671999999999889E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="B20" s="3">
-        <v>123.45272827184399</v>
+        <v>1.66479464285714E-3</v>
       </c>
       <c r="C20" s="3">
-        <v>880.79844789361698</v>
+        <v>5.3858181818181798E-4</v>
       </c>
       <c r="D20" s="3">
-        <v>1004.2511761654609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.2033764610389578E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>16</v>
       </c>
       <c r="B21" s="3">
-        <v>124.172776067961</v>
+        <v>1.50277678571428E-3</v>
       </c>
       <c r="C21" s="3">
-        <v>870.21480619148895</v>
+        <v>6.0965454545454498E-4</v>
       </c>
       <c r="D21" s="3">
-        <v>994.38758225944991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.1124313311688251E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>17</v>
       </c>
       <c r="B22" s="3">
-        <v>123.274966320388</v>
+        <v>1.3758839285714199E-3</v>
       </c>
       <c r="C22" s="3">
-        <v>879.47198612765897</v>
+        <v>6.0070909090908999E-4</v>
       </c>
       <c r="D22" s="3">
-        <v>1002.746952448047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.9765930194805097E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="B23" s="3">
-        <v>124.289669077669</v>
+        <v>1.2780982142857099E-3</v>
       </c>
       <c r="C23" s="3">
-        <v>947.98576021276494</v>
+        <v>5.5769090909090901E-4</v>
       </c>
       <c r="D23" s="3">
-        <v>1072.275429290434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.8357891233766188E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="B24" s="3">
-        <v>126.163280242718</v>
+        <v>1.1904285714285699E-3</v>
       </c>
       <c r="C24" s="3">
-        <v>938.67018640425499</v>
+        <v>5.5187272727272698E-4</v>
       </c>
       <c r="D24" s="3">
-        <v>1064.833466646973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.7423012987012969E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>20</v>
       </c>
       <c r="B25" s="3">
-        <v>129.730929524271</v>
+        <v>6.4126785714285696E-4</v>
       </c>
       <c r="C25" s="3">
-        <v>974.84814893616897</v>
+        <v>5.2090909090909E-4</v>
       </c>
       <c r="D25" s="3">
-        <v>1104.5790784604401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.1621769480519469E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>21</v>
       </c>
       <c r="B26" s="3">
-        <v>129.588643825242</v>
+        <v>8.9291964285714202E-4</v>
       </c>
       <c r="C26" s="3">
-        <v>961.85202295744602</v>
+        <v>4.9676363636363605E-4</v>
       </c>
       <c r="D26" s="3">
-        <v>1091.4406667826879</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.3896832792207781E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>22</v>
       </c>
       <c r="B27" s="3">
-        <v>130.510539417475</v>
+        <v>9.1664285714285697E-4</v>
       </c>
       <c r="C27" s="3">
-        <v>929.01865004255205</v>
+        <v>4.8841818181818097E-4</v>
       </c>
       <c r="D27" s="3">
-        <v>1059.5291894600271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.4050610389610379E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="B28" s="3">
-        <v>129.60680749999901</v>
+        <v>8.4083783783783696E-4</v>
       </c>
       <c r="C28" s="3">
-        <v>956.09238770212698</v>
+        <v>3.45236363636363E-4</v>
       </c>
       <c r="D28" s="3">
-        <v>1085.699195202126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.1860742014742E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>24</v>
       </c>
       <c r="B29" s="3">
-        <v>131.56505300000001</v>
+        <v>7.7477477477477395E-4</v>
       </c>
       <c r="C29" s="3">
-        <v>1012.55696053191</v>
+        <v>3.6427272727272702E-4</v>
       </c>
       <c r="D29" s="3">
-        <v>1144.1220135319099</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.139047502047501E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>25</v>
       </c>
       <c r="B30" s="3">
-        <v>130.823250088235</v>
+        <v>7.3798198198198105E-4</v>
       </c>
       <c r="C30" s="3">
-        <v>1035.6640698297799</v>
+        <v>3.4874545454545398E-4</v>
       </c>
       <c r="D30" s="3">
-        <v>1166.4873199180149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.0867274365274351E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>26</v>
       </c>
       <c r="B31" s="3">
-        <v>127.617859058823</v>
+        <v>7.0679279279279195E-4</v>
       </c>
       <c r="C31" s="3">
-        <v>1001.92697668085</v>
+        <v>3.5787272727272698E-4</v>
       </c>
       <c r="D31" s="3">
-        <v>1129.5448357396731</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.0646655200655189E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>27</v>
       </c>
       <c r="B32" s="3">
-        <v>126.63514095098</v>
+        <v>6.6642342342342303E-4</v>
       </c>
       <c r="C32" s="3">
-        <v>1028.0969134680799</v>
+        <v>3.4461818181818099E-4</v>
       </c>
       <c r="D32" s="3">
-        <v>1154.73205441906</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.0110416052416041E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>28</v>
       </c>
       <c r="B33" s="3">
-        <v>127.210419323529</v>
+        <v>6.6296396396396402E-4</v>
       </c>
       <c r="C33" s="3">
-        <v>1061.1609659148901</v>
+        <v>3.5147272727272698E-4</v>
       </c>
       <c r="D33" s="3">
-        <v>1188.3713852384192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.014436691236691E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>29</v>
       </c>
       <c r="B34" s="3">
-        <v>124.420636068627</v>
+        <v>7.0872072072072001E-4</v>
       </c>
       <c r="C34" s="3">
-        <v>1105.56628555319</v>
+        <v>3.53836363636363E-4</v>
       </c>
       <c r="D34" s="3">
-        <v>1229.9869216218171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.0625570843570829E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>30</v>
       </c>
       <c r="B35" s="3">
-        <v>122.38775861764699</v>
+        <v>7.5194594594594501E-4</v>
       </c>
       <c r="C35" s="3">
-        <v>1125.21689119148</v>
+        <v>3.2236363636363598E-4</v>
       </c>
       <c r="D35" s="3">
-        <v>1247.6046498091271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.0743095823095811E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>31</v>
       </c>
       <c r="B36" s="3">
-        <v>121.361424970588</v>
+        <v>5.6932432432432397E-4</v>
       </c>
       <c r="C36" s="3">
-        <v>1224.45827114893</v>
+        <v>3.2440000000000002E-4</v>
       </c>
       <c r="D36" s="3">
-        <v>1345.8196961195179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.9372432432432394E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>32</v>
       </c>
       <c r="B37" s="3">
-        <v>121.973196735294</v>
+        <v>5.5690990990990899E-4</v>
       </c>
       <c r="C37" s="3">
-        <v>1214.9502951914801</v>
+        <v>3.45145454545454E-4</v>
       </c>
       <c r="D37" s="3">
-        <v>1336.9234919267742</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.0205536445536294E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>33</v>
       </c>
       <c r="B38" s="3">
-        <v>125.501830352941</v>
+        <v>5.2879279279279196E-4</v>
       </c>
       <c r="C38" s="3">
-        <v>1223.99243027083</v>
+        <v>3.1223636363636302E-4</v>
       </c>
       <c r="D38" s="3">
-        <v>1349.494260623771</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.4102915642915498E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>34</v>
       </c>
       <c r="B39" s="3">
-        <v>120.884560058823</v>
+        <v>5.2229729729729704E-4</v>
       </c>
       <c r="C39" s="3">
-        <v>1288.8464734255299</v>
+        <v>3.41648148148148E-4</v>
       </c>
       <c r="D39" s="3">
-        <v>1409.7310334843528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.6394544544544504E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>35</v>
       </c>
       <c r="B40" s="3">
-        <v>118.430063156862</v>
+        <v>5.2950450450450401E-4</v>
       </c>
       <c r="C40" s="3">
-        <v>1207.84882612766</v>
+        <v>3.3225925925925898E-4</v>
       </c>
       <c r="D40" s="3">
-        <v>1326.2788892845219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.6176376376376294E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>36</v>
       </c>
       <c r="B41" s="3">
-        <v>116.365827431372</v>
+        <v>5.1669369369369302E-4</v>
       </c>
       <c r="C41" s="3">
-        <v>1321.93031140425</v>
+        <v>3.3359259259259198E-4</v>
       </c>
       <c r="D41" s="3">
-        <v>1438.2961388356221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.5028628628628505E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>37</v>
       </c>
       <c r="B42" s="3">
-        <v>114.771255637254</v>
+        <v>5.1438738738738697E-4</v>
       </c>
       <c r="C42" s="3">
-        <v>1352.4905886382901</v>
+        <v>3.18555555555555E-4</v>
       </c>
       <c r="D42" s="3">
-        <v>1467.261844275544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.3294294294294197E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>38</v>
       </c>
       <c r="B43" s="3">
-        <v>115.791869813725</v>
+        <v>5.0881081081081004E-4</v>
       </c>
       <c r="C43" s="3">
-        <v>1353.91741004255</v>
+        <v>3.0405555555555503E-4</v>
       </c>
       <c r="D43" s="3">
-        <v>1469.7092798562751</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.1286636636636507E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>39</v>
       </c>
       <c r="B44" s="3">
-        <v>117.411819382353</v>
+        <v>5.0227027027027E-4</v>
       </c>
       <c r="C44" s="3">
-        <v>1337.3059215319099</v>
+        <v>3.2068518518518497E-4</v>
       </c>
       <c r="D44" s="3">
-        <v>1454.717740914263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.2295545545545503E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="3">
-        <v>4874.1245038145144</v>
+        <v>3.878646243564985E-2</v>
       </c>
       <c r="C45" s="3">
-        <v>34277.061016292027</v>
+        <v>1.5477153872053853E-2</v>
       </c>
       <c r="D45" s="3">
-        <v>39151.185520106534</v>
+        <v>5.4263616307703696E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15348,20 +15349,20 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -15372,7 +15373,7 @@
         <v>401.53582089361697</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -15383,7 +15384,7 @@
         <v>427.10410642553097</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -15394,7 +15395,7 @@
         <v>438.74009251063802</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -15405,7 +15406,7 @@
         <v>430.21052944680798</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -15416,7 +15417,7 @@
         <v>442.01761621276597</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -15427,7 +15428,7 @@
         <v>441.05879751063799</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -15438,7 +15439,7 @@
         <v>437.98036468085098</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -15449,7 +15450,7 @@
         <v>431.33504421276598</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -15460,7 +15461,7 @@
         <v>430.26502253191398</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -15471,7 +15472,7 @@
         <v>426.11937844680801</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -15482,7 +15483,7 @@
         <v>459.09164708510599</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -15493,7 +15494,7 @@
         <v>464.30861623404201</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -15504,7 +15505,7 @@
         <v>459.35002004255301</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -15515,7 +15516,7 @@
         <v>463.11037153191501</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -15526,7 +15527,7 @@
         <v>889.95160110638301</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -15537,7 +15538,7 @@
         <v>880.79844789361698</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -15548,7 +15549,7 @@
         <v>870.21480619148895</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -15559,7 +15560,7 @@
         <v>879.47198612765897</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -15570,7 +15571,7 @@
         <v>947.98576021276494</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -15581,7 +15582,7 @@
         <v>938.67018640425499</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -15592,7 +15593,7 @@
         <v>974.84814893616897</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -15603,7 +15604,7 @@
         <v>961.85202295744602</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -15614,7 +15615,7 @@
         <v>929.01865004255205</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -15625,7 +15626,7 @@
         <v>956.09238770212698</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -15636,7 +15637,7 @@
         <v>1012.55696053191</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -15647,7 +15648,7 @@
         <v>1035.6640698297799</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -15658,7 +15659,7 @@
         <v>1001.92697668085</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -15669,7 +15670,7 @@
         <v>1028.0969134680799</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -15680,7 +15681,7 @@
         <v>1061.1609659148901</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -15691,7 +15692,7 @@
         <v>1105.56628555319</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -15702,7 +15703,7 @@
         <v>1125.21689119148</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -15713,7 +15714,7 @@
         <v>1224.45827114893</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -15724,7 +15725,7 @@
         <v>1214.9502951914801</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -15735,7 +15736,7 @@
         <v>1223.99243027083</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -15746,7 +15747,7 @@
         <v>1288.8464734255299</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -15757,7 +15758,7 @@
         <v>1207.84882612766</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -15768,7 +15769,7 @@
         <v>1321.93031140425</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -15779,7 +15780,7 @@
         <v>1352.4905886382901</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -15790,7 +15791,7 @@
         <v>1353.91741004255</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -15811,24 +15812,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -15839,7 +15840,7 @@
         <v>6.4537420363636304</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -15850,7 +15851,7 @@
         <v>6.48856058181818</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -15861,7 +15862,7 @@
         <v>6.6266592909090898</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -15872,7 +15873,7 @@
         <v>6.5876023090908999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -15883,7 +15884,7 @@
         <v>6.6605336545454499</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -15894,7 +15895,7 @@
         <v>6.6228390545454499</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -15905,7 +15906,7 @@
         <v>6.6072777818181798</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -15916,7 +15917,7 @@
         <v>6.5817971636363604</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -15927,7 +15928,7 @@
         <v>6.5814181636363598</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -15938,7 +15939,7 @@
         <v>6.6187751636363599</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -15949,7 +15950,7 @@
         <v>6.6602216181818097</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -15960,7 +15961,7 @@
         <v>6.6588359636363599</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -15971,7 +15972,7 @@
         <v>6.6693783454545397</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -15982,7 +15983,7 @@
         <v>6.7252218545454499</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -15993,7 +15994,7 @@
         <v>6.9561183272727201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -16004,7 +16005,7 @@
         <v>7.0276017818181797</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -16015,7 +16016,7 @@
         <v>6.9899370545454502</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -16026,7 +16027,7 @@
         <v>7.0475772181818099</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -16037,7 +16038,7 @@
         <v>7.0423554363636303</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -16048,7 +16049,7 @@
         <v>7.06983685454545</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -16059,7 +16060,7 @@
         <v>7.1588106363636301</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -16070,7 +16071,7 @@
         <v>7.21368376363636</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -16081,7 +16082,7 @@
         <v>7.18688103636363</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -16092,7 +16093,7 @@
         <v>7.1839556181818098</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -16103,7 +16104,7 @@
         <v>7.2492844363636397</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -16114,7 +16115,7 @@
         <v>7.2659870727272704</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -16125,7 +16126,7 @@
         <v>7.1881284181818099</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -16136,7 +16137,7 @@
         <v>7.2691660727272698</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -16147,7 +16148,7 @@
         <v>7.2784285818181802</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -16158,7 +16159,7 @@
         <v>7.3694737272727302</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -16169,7 +16170,7 @@
         <v>7.3873377818181796</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -16180,7 +16181,7 @@
         <v>7.4156052909090802</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -16191,7 +16192,7 @@
         <v>7.4928416545454501</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -16202,7 +16203,7 @@
         <v>7.5420241999999904</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -16213,7 +16214,7 @@
         <v>7.6010784074073996</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -16224,7 +16225,7 @@
         <v>7.5498244629629596</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -16235,7 +16236,7 @@
         <v>7.7242876296296199</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -16246,7 +16247,7 @@
         <v>7.8625325370370298</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -16257,7 +16258,7 @@
         <v>7.9033555925925896</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -16283,14 +16284,14 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.08203125" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -16313,7 +16314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -16336,7 +16337,7 @@
         <v>7.5970319999999897E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -16359,7 +16360,7 @@
         <v>7.5483279999999903E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -16382,7 +16383,7 @@
         <v>7.5822239999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -16405,7 +16406,7 @@
         <v>7.5148659999999895E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -16428,7 +16429,7 @@
         <v>7.5302859999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -16451,7 +16452,7 @@
         <v>7.5428019999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -16474,7 +16475,7 @@
         <v>7.5964019999999993E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -16497,7 +16498,7 @@
         <v>8.1769862745097996E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -16520,7 +16521,7 @@
         <v>8.2159823529411702E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -16543,7 +16544,7 @@
         <v>8.2271235294117603E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -16566,7 +16567,7 @@
         <v>8.2509058823529297E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -16589,7 +16590,7 @@
         <v>8.2104431372548997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -16612,7 +16613,7 @@
         <v>8.2115254901960699E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -16635,7 +16636,7 @@
         <v>8.2188215686274504E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -16658,7 +16659,7 @@
         <v>8.2249568627450906E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -16681,7 +16682,7 @@
         <v>8.2244803921568604E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -16704,7 +16705,7 @@
         <v>8.2238352941176401E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -16727,7 +16728,7 @@
         <v>8.2193098039215706E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -16750,7 +16751,7 @@
         <v>8.2279196078431302E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -16773,7 +16774,7 @@
         <v>8.2149392156862705E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -16796,7 +16797,7 @@
         <v>8.2468039215686198E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -16819,7 +16820,7 @@
         <v>8.2451823529411702E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -16842,7 +16843,7 @@
         <v>8.2710235294117598E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -16865,7 +16866,7 @@
         <v>8.2500764705882301E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -16888,7 +16889,7 @@
         <v>8.2974509803921501E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -16911,7 +16912,7 @@
         <v>8.2841882352941099E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -16934,7 +16935,7 @@
         <v>8.2761705882352904E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -16957,7 +16958,7 @@
         <v>8.2651568627451003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -16980,7 +16981,7 @@
         <v>8.2647333333333295E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -17003,7 +17004,7 @@
         <v>8.2621411764705804E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -17026,7 +17027,7 @@
         <v>8.2401666666666595E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -17049,7 +17050,7 @@
         <v>8.2374588235294102E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -17072,7 +17073,7 @@
         <v>8.2425313725490196E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -17095,7 +17096,7 @@
         <v>8.2477882352941095E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -17118,7 +17119,7 @@
         <v>8.2432215686274402E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -17141,7 +17142,7 @@
         <v>8.2741666666666602E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -17164,7 +17165,7 @@
         <v>8.3029725490195994E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -17187,7 +17188,7 @@
         <v>8.3081686274509695E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -17210,7 +17211,7 @@
         <v>8.2952372549019604E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -17248,9 +17249,9 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -17261,7 +17262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -17272,7 +17273,7 @@
         <v>0.47847783999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -17283,7 +17284,7 @@
         <v>0.47858958000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -17294,7 +17295,7 @@
         <v>0.47910559999999902</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -17305,7 +17306,7 @@
         <v>0.47894513999999899</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -17316,7 +17317,7 @@
         <v>0.47952011999999899</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -17327,7 +17328,7 @@
         <v>0.47996397999999901</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -17338,7 +17339,7 @@
         <v>0.48026664000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -17349,7 +17350,7 @@
         <v>0.49081921568627401</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -17360,7 +17361,7 @@
         <v>0.49096321568627399</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -17371,7 +17372,7 @@
         <v>0.49112601960784302</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -17382,7 +17383,7 @@
         <v>0.49155347058823501</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -17393,7 +17394,7 @@
         <v>0.49117788235294102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -17404,7 +17405,7 @@
         <v>0.491476862745097</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -17415,7 +17416,7 @@
         <v>0.49202807843137197</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -17426,7 +17427,7 @@
         <v>0.49236874509803902</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -17437,7 +17438,7 @@
         <v>0.49271162745098002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -17448,7 +17449,7 @@
         <v>0.49319870588235298</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -17459,7 +17460,7 @@
         <v>0.49368482352941101</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -17470,7 +17471,7 @@
         <v>0.49375580392156798</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -17481,7 +17482,7 @@
         <v>0.49360223529411701</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -17492,7 +17493,7 @@
         <v>0.493846196078431</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -17503,7 +17504,7 @@
         <v>0.49372574509803901</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -17514,7 +17515,7 @@
         <v>0.49420035294117598</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -17525,7 +17526,7 @@
         <v>0.49376764705882298</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -17536,7 +17537,7 @@
         <v>0.49470874509803903</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -17547,7 +17548,7 @@
         <v>0.49465496078431298</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -17558,7 +17559,7 @@
         <v>0.49470476470588198</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -17569,7 +17570,7 @@
         <v>0.49480664705882299</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -17580,7 +17581,7 @@
         <v>0.49485182352941098</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>0.49521013725490098</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -17602,7 +17603,7 @@
         <v>0.495022392156862</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -17613,7 +17614,7 @@
         <v>0.49555270588235301</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -17624,7 +17625,7 @@
         <v>0.49553009803921499</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -17635,7 +17636,7 @@
         <v>0.49533125490196001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -17646,7 +17647,7 @@
         <v>0.49549368627450902</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -17657,7 +17658,7 @@
         <v>0.49560264705882301</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -17668,7 +17669,7 @@
         <v>0.49601235294117602</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -17679,7 +17680,7 @@
         <v>0.49632556862744998</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -17690,7 +17691,7 @@
         <v>0.496388490196078</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -17712,16 +17713,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -17738,7 +17739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -17755,7 +17756,7 @@
         <v>0.42676039537080102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -17772,7 +17773,7 @@
         <v>-0.27800483608464199</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -17789,7 +17790,7 @@
         <v>1.5847239461461899</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -17806,7 +17807,7 @@
         <v>7.7602089050904802E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -17823,7 +17824,7 @@
         <v>0.77442598149877095</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -17840,7 +17841,7 @@
         <v>-0.372486230853939</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -17857,7 +17858,7 @@
         <v>0.60459958189827301</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -17874,7 +17875,7 @@
         <v>-0.895060177931429</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -17891,7 +17892,7 @@
         <v>0.36443184936025702</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -17908,7 +17909,7 @@
         <v>0.22387010320387801</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -17925,7 +17926,7 @@
         <v>0.25371016912475503</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -17942,7 +17943,7 @@
         <v>6.4406903974412996E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -17959,7 +17960,7 @@
         <v>-0.56852587480525096</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -17976,7 +17977,7 @@
         <v>0.47812106458214398</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -17993,7 +17994,7 @@
         <v>-0.594199311201422</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -18010,7 +18011,7 @@
         <v>0.47805985433373399</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -18027,7 +18028,7 @@
         <v>-0.35202264891224899</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -18044,7 +18045,7 @@
         <v>0.58437897667608896</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -18061,7 +18062,7 @@
         <v>-3.0223111279135201E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -18078,7 +18079,7 @@
         <v>9.0840354681292299E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -18095,7 +18096,7 @@
         <v>0.62866549743518796</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>0.54844291867664696</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -18129,7 +18130,7 @@
         <v>-1.00704574906337</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -18146,7 +18147,7 @@
         <v>0.49803163508671999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -18163,7 +18164,7 @@
         <v>1.15220209646737</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -18180,7 +18181,7 @@
         <v>0.50667910722103304</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -18197,7 +18198,7 @@
         <v>0.128406546589517</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -18214,7 +18215,7 @@
         <v>0.83455986853142605</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -18231,7 +18232,7 @@
         <v>0.45639891585553</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -18248,7 +18249,7 @@
         <v>0.39349811895565301</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -18265,7 +18266,7 @@
         <v>0.221039095844665</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -18282,7 +18283,7 @@
         <v>0.19245306272886201</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -18299,7 +18300,7 @@
         <v>1.0977430948406099</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -18316,7 +18317,7 @@
         <v>0.281811422048386</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -18333,7 +18334,7 @@
         <v>0.75214077166743198</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -18350,7 +18351,7 @@
         <v>0.61815826029911303</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -18367,7 +18368,7 @@
         <v>1.2060611002919099</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -18384,7 +18385,7 @@
         <v>0.95669479065037899</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -18401,7 +18402,7 @@
         <v>1.2550307500346001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -18427,15 +18428,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -18446,7 +18447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -18457,7 +18458,7 @@
         <v>4.4266666666666602E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -18467,8 +18468,14 @@
       <c r="C3" s="3">
         <v>4.1714545454545402E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -18478,8 +18485,20 @@
       <c r="C4" s="3">
         <v>3.7985454545454497E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -18489,8 +18508,20 @@
       <c r="C5" s="3">
         <v>3.5734545454545403E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>9.1836036036036005E-4</v>
+      </c>
+      <c r="P5">
+        <v>4.4266666666666602E-4</v>
+      </c>
+      <c r="Q5">
+        <v>1.3610270270270261E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -18500,8 +18531,20 @@
       <c r="C6" s="3">
         <v>3.4620000000000001E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>8.2326785714285705E-4</v>
+      </c>
+      <c r="P6">
+        <v>4.1714545454545402E-4</v>
+      </c>
+      <c r="Q6">
+        <v>1.2404133116883111E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -18511,8 +18554,20 @@
       <c r="C7" s="3">
         <v>3.38127272727272E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>7.7186607142857102E-4</v>
+      </c>
+      <c r="P7">
+        <v>3.7985454545454497E-4</v>
+      </c>
+      <c r="Q7">
+        <v>1.1517206168831159E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -18522,8 +18577,20 @@
       <c r="C8" s="3">
         <v>3.3839999999999901E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>7.2575000000000005E-4</v>
+      </c>
+      <c r="P8">
+        <v>3.5734545454545403E-4</v>
+      </c>
+      <c r="Q8">
+        <v>1.0830954545454541E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -18533,8 +18600,20 @@
       <c r="C9" s="3">
         <v>3.3278181818181802E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>7.0498214285714196E-4</v>
+      </c>
+      <c r="P9">
+        <v>3.4620000000000001E-4</v>
+      </c>
+      <c r="Q9">
+        <v>1.051182142857142E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -18544,8 +18623,20 @@
       <c r="C10" s="3">
         <v>3.3490909090908998E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>6.6200000000000005E-4</v>
+      </c>
+      <c r="P10">
+        <v>3.38127272727272E-4</v>
+      </c>
+      <c r="Q10">
+        <v>1.0001272727272721E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -18555,8 +18646,20 @@
       <c r="C11" s="3">
         <v>3.7120000000000002E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11">
+        <v>6.4708928571428502E-4</v>
+      </c>
+      <c r="P11">
+        <v>3.3839999999999901E-4</v>
+      </c>
+      <c r="Q11">
+        <v>9.8548928571428403E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -18566,8 +18669,20 @@
       <c r="C12" s="3">
         <v>3.62818181818181E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>6.14607142857142E-4</v>
+      </c>
+      <c r="P12">
+        <v>3.3278181818181802E-4</v>
+      </c>
+      <c r="Q12">
+        <v>9.4738896103895996E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -18577,8 +18692,20 @@
       <c r="C13" s="3">
         <v>3.36363636363636E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>6.0489285714285701E-4</v>
+      </c>
+      <c r="P13">
+        <v>3.3490909090908998E-4</v>
+      </c>
+      <c r="Q13">
+        <v>9.3980194805194693E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -18588,8 +18715,20 @@
       <c r="C14" s="3">
         <v>3.5092727272727198E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>5.6745535714285698E-4</v>
+      </c>
+      <c r="P14">
+        <v>3.7120000000000002E-4</v>
+      </c>
+      <c r="Q14">
+        <v>9.38655357142857E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -18599,8 +18738,20 @@
       <c r="C15" s="3">
         <v>3.4761818181818101E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>2.0558839285714199E-3</v>
+      </c>
+      <c r="P15">
+        <v>3.62818181818181E-4</v>
+      </c>
+      <c r="Q15">
+        <v>2.4187021103896011E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -18610,8 +18761,20 @@
       <c r="C16" s="3">
         <v>3.3519999999999899E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>11</v>
+      </c>
+      <c r="O16">
+        <v>3.2138749999999902E-3</v>
+      </c>
+      <c r="P16">
+        <v>3.36363636363636E-4</v>
+      </c>
+      <c r="Q16">
+        <v>3.5502386363636261E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -18621,8 +18784,20 @@
       <c r="C17" s="3">
         <v>5.3858181818181798E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <v>2.48270535714285E-3</v>
+      </c>
+      <c r="P17">
+        <v>3.5092727272727198E-4</v>
+      </c>
+      <c r="Q17">
+        <v>2.8336326298701222E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -18632,8 +18807,20 @@
       <c r="C18" s="3">
         <v>6.0965454545454498E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>13</v>
+      </c>
+      <c r="O18">
+        <v>2.0994821428571399E-3</v>
+      </c>
+      <c r="P18">
+        <v>3.4761818181818101E-4</v>
+      </c>
+      <c r="Q18">
+        <v>2.4471003246753211E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -18643,8 +18830,20 @@
       <c r="C19" s="3">
         <v>6.0070909090908999E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>14</v>
+      </c>
+      <c r="O19">
+        <v>1.8319999999999901E-3</v>
+      </c>
+      <c r="P19">
+        <v>3.3519999999999899E-4</v>
+      </c>
+      <c r="Q19">
+        <v>2.1671999999999889E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -18654,8 +18853,20 @@
       <c r="C20" s="3">
         <v>5.5769090909090901E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>15</v>
+      </c>
+      <c r="O20">
+        <v>1.66479464285714E-3</v>
+      </c>
+      <c r="P20">
+        <v>5.3858181818181798E-4</v>
+      </c>
+      <c r="Q20">
+        <v>2.2033764610389578E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -18665,8 +18876,20 @@
       <c r="C21" s="3">
         <v>5.5187272727272698E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>16</v>
+      </c>
+      <c r="O21">
+        <v>1.50277678571428E-3</v>
+      </c>
+      <c r="P21">
+        <v>6.0965454545454498E-4</v>
+      </c>
+      <c r="Q21">
+        <v>2.1124313311688251E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -18676,8 +18899,20 @@
       <c r="C22" s="3">
         <v>5.2090909090909E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>17</v>
+      </c>
+      <c r="O22">
+        <v>1.3758839285714199E-3</v>
+      </c>
+      <c r="P22">
+        <v>6.0070909090908999E-4</v>
+      </c>
+      <c r="Q22">
+        <v>1.9765930194805097E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -18687,8 +18922,20 @@
       <c r="C23" s="3">
         <v>4.9676363636363605E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>18</v>
+      </c>
+      <c r="O23">
+        <v>1.2780982142857099E-3</v>
+      </c>
+      <c r="P23">
+        <v>5.5769090909090901E-4</v>
+      </c>
+      <c r="Q23">
+        <v>1.8357891233766188E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -18698,8 +18945,20 @@
       <c r="C24" s="3">
         <v>4.8841818181818097E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>19</v>
+      </c>
+      <c r="O24">
+        <v>1.1904285714285699E-3</v>
+      </c>
+      <c r="P24">
+        <v>5.5187272727272698E-4</v>
+      </c>
+      <c r="Q24">
+        <v>1.7423012987012969E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -18709,8 +18968,20 @@
       <c r="C25" s="3">
         <v>3.45236363636363E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>20</v>
+      </c>
+      <c r="O25">
+        <v>6.4126785714285696E-4</v>
+      </c>
+      <c r="P25">
+        <v>5.2090909090909E-4</v>
+      </c>
+      <c r="Q25">
+        <v>1.1621769480519469E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -18720,8 +18991,20 @@
       <c r="C26" s="3">
         <v>3.6427272727272702E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>21</v>
+      </c>
+      <c r="O26">
+        <v>8.9291964285714202E-4</v>
+      </c>
+      <c r="P26">
+        <v>4.9676363636363605E-4</v>
+      </c>
+      <c r="Q26">
+        <v>1.3896832792207781E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -18731,8 +19014,20 @@
       <c r="C27" s="3">
         <v>3.4874545454545398E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>22</v>
+      </c>
+      <c r="O27">
+        <v>9.1664285714285697E-4</v>
+      </c>
+      <c r="P27">
+        <v>4.8841818181818097E-4</v>
+      </c>
+      <c r="Q27">
+        <v>1.4050610389610379E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -18742,8 +19037,20 @@
       <c r="C28" s="3">
         <v>3.5787272727272698E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>23</v>
+      </c>
+      <c r="O28">
+        <v>8.4083783783783696E-4</v>
+      </c>
+      <c r="P28">
+        <v>3.45236363636363E-4</v>
+      </c>
+      <c r="Q28">
+        <v>1.1860742014742E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -18753,8 +19060,20 @@
       <c r="C29" s="3">
         <v>3.4461818181818099E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>24</v>
+      </c>
+      <c r="O29">
+        <v>7.7477477477477395E-4</v>
+      </c>
+      <c r="P29">
+        <v>3.6427272727272702E-4</v>
+      </c>
+      <c r="Q29">
+        <v>1.139047502047501E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -18764,8 +19083,20 @@
       <c r="C30" s="3">
         <v>3.5147272727272698E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>25</v>
+      </c>
+      <c r="O30">
+        <v>7.3798198198198105E-4</v>
+      </c>
+      <c r="P30">
+        <v>3.4874545454545398E-4</v>
+      </c>
+      <c r="Q30">
+        <v>1.0867274365274351E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -18775,8 +19106,20 @@
       <c r="C31" s="3">
         <v>3.53836363636363E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>26</v>
+      </c>
+      <c r="O31">
+        <v>7.0679279279279195E-4</v>
+      </c>
+      <c r="P31">
+        <v>3.5787272727272698E-4</v>
+      </c>
+      <c r="Q31">
+        <v>1.0646655200655189E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -18786,8 +19129,20 @@
       <c r="C32" s="3">
         <v>3.2236363636363598E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>27</v>
+      </c>
+      <c r="O32">
+        <v>6.6642342342342303E-4</v>
+      </c>
+      <c r="P32">
+        <v>3.4461818181818099E-4</v>
+      </c>
+      <c r="Q32">
+        <v>1.0110416052416041E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -18797,8 +19152,20 @@
       <c r="C33" s="3">
         <v>3.2440000000000002E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>28</v>
+      </c>
+      <c r="O33">
+        <v>6.6296396396396402E-4</v>
+      </c>
+      <c r="P33">
+        <v>3.5147272727272698E-4</v>
+      </c>
+      <c r="Q33">
+        <v>1.014436691236691E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -18808,8 +19175,20 @@
       <c r="C34" s="3">
         <v>3.45145454545454E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>29</v>
+      </c>
+      <c r="O34">
+        <v>7.0872072072072001E-4</v>
+      </c>
+      <c r="P34">
+        <v>3.53836363636363E-4</v>
+      </c>
+      <c r="Q34">
+        <v>1.0625570843570829E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -18819,8 +19198,20 @@
       <c r="C35" s="3">
         <v>3.1223636363636302E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>30</v>
+      </c>
+      <c r="O35">
+        <v>7.5194594594594501E-4</v>
+      </c>
+      <c r="P35">
+        <v>3.2236363636363598E-4</v>
+      </c>
+      <c r="Q35">
+        <v>1.0743095823095811E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -18830,8 +19221,20 @@
       <c r="C36" s="3">
         <v>3.41648148148148E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>31</v>
+      </c>
+      <c r="O36">
+        <v>5.6932432432432397E-4</v>
+      </c>
+      <c r="P36">
+        <v>3.2440000000000002E-4</v>
+      </c>
+      <c r="Q36">
+        <v>8.9372432432432394E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -18841,8 +19244,20 @@
       <c r="C37" s="3">
         <v>3.3225925925925898E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>32</v>
+      </c>
+      <c r="O37">
+        <v>5.5690990990990899E-4</v>
+      </c>
+      <c r="P37">
+        <v>3.45145454545454E-4</v>
+      </c>
+      <c r="Q37">
+        <v>9.0205536445536294E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -18852,8 +19267,20 @@
       <c r="C38" s="3">
         <v>3.3359259259259198E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>33</v>
+      </c>
+      <c r="O38">
+        <v>5.2879279279279196E-4</v>
+      </c>
+      <c r="P38">
+        <v>3.1223636363636302E-4</v>
+      </c>
+      <c r="Q38">
+        <v>8.4102915642915498E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -18863,8 +19290,20 @@
       <c r="C39" s="3">
         <v>3.18555555555555E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>34</v>
+      </c>
+      <c r="O39">
+        <v>5.2229729729729704E-4</v>
+      </c>
+      <c r="P39">
+        <v>3.41648148148148E-4</v>
+      </c>
+      <c r="Q39">
+        <v>8.6394544544544504E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -18874,8 +19313,20 @@
       <c r="C40" s="3">
         <v>3.0405555555555503E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>35</v>
+      </c>
+      <c r="O40">
+        <v>5.2950450450450401E-4</v>
+      </c>
+      <c r="P40">
+        <v>3.3225925925925898E-4</v>
+      </c>
+      <c r="Q40">
+        <v>8.6176376376376294E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -18884,6 +19335,74 @@
       </c>
       <c r="C41" s="3">
         <v>3.2068518518518497E-4</v>
+      </c>
+      <c r="N41">
+        <v>36</v>
+      </c>
+      <c r="O41">
+        <v>5.1669369369369302E-4</v>
+      </c>
+      <c r="P41">
+        <v>3.3359259259259198E-4</v>
+      </c>
+      <c r="Q41">
+        <v>8.5028628628628505E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <v>37</v>
+      </c>
+      <c r="O42">
+        <v>5.1438738738738697E-4</v>
+      </c>
+      <c r="P42">
+        <v>3.18555555555555E-4</v>
+      </c>
+      <c r="Q42">
+        <v>8.3294294294294197E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <v>38</v>
+      </c>
+      <c r="O43">
+        <v>5.0881081081081004E-4</v>
+      </c>
+      <c r="P43">
+        <v>3.0405555555555503E-4</v>
+      </c>
+      <c r="Q43">
+        <v>8.1286636636636507E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <v>39</v>
+      </c>
+      <c r="O44">
+        <v>5.0227027027027E-4</v>
+      </c>
+      <c r="P44">
+        <v>3.2068518518518497E-4</v>
+      </c>
+      <c r="Q44">
+        <v>8.2295545545545503E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N45" t="s">
+        <v>14</v>
+      </c>
+      <c r="O45">
+        <v>3.878646243564985E-2</v>
+      </c>
+      <c r="P45">
+        <v>1.5477153872053853E-2</v>
+      </c>
+      <c r="Q45">
+        <v>5.4263616307703696E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18901,9 +19420,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -18914,7 +19433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -18925,7 +19444,7 @@
         <v>4.98954545454545E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -18936,7 +19455,7 @@
         <v>3.9113090909090903E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -18947,7 +19466,7 @@
         <v>3.9978727272727201E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -18958,7 +19477,7 @@
         <v>4.1145272727272697E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -18969,7 +19488,7 @@
         <v>3.5214181818181797E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -18980,7 +19499,7 @@
         <v>3.5486909090909E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -18991,7 +19510,7 @@
         <v>3.3897090909090898E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -19002,7 +19521,7 @@
         <v>3.3093818181818099E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -19013,7 +19532,7 @@
         <v>3.1326909090909003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -19024,7 +19543,7 @@
         <v>3.3065454545454502E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -19035,7 +19554,7 @@
         <v>3.4149272727272702E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -19046,7 +19565,7 @@
         <v>3.9512545454545397E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -19057,7 +19576,7 @@
         <v>3.5136727272727201E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -19068,7 +19587,7 @@
         <v>3.5732727272727201E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -19079,7 +19598,7 @@
         <v>3.7552909090908998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -19090,7 +19609,7 @@
         <v>3.4573818181818101E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -19101,7 +19620,7 @@
         <v>3.3639818181818097E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -19112,7 +19631,7 @@
         <v>3.7822000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -19123,7 +19642,7 @@
         <v>3.5869999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -19134,7 +19653,7 @@
         <v>3.3351454545454497E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -19145,7 +19664,7 @@
         <v>3.9396545454545399E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -19156,7 +19675,7 @@
         <v>3.6514363636363602E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -19167,7 +19686,7 @@
         <v>3.1275454545454502E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -19178,7 +19697,7 @@
         <v>3.1540545454545398E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -19189,7 +19708,7 @@
         <v>3.4242545454545401E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -19200,7 +19719,7 @@
         <v>3.4257636363636303E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -19211,7 +19730,7 @@
         <v>3.3288545454545397E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -19222,7 +19741,7 @@
         <v>3.72279999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -19233,7 +19752,7 @@
         <v>3.4121454545454503E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -19244,7 +19763,7 @@
         <v>3.6012909090908998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -19255,7 +19774,7 @@
         <v>3.09425454545454E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -19266,7 +19785,7 @@
         <v>3.3863454545454502E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -19277,7 +19796,7 @@
         <v>3.0970181818181799E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -19288,7 +19807,7 @@
         <v>3.4330909090909002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -19299,7 +19818,7 @@
         <v>3.6714259259259197E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -19310,7 +19829,7 @@
         <v>3.9838518518518502E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -19321,7 +19840,7 @@
         <v>3.9278333333333297E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -19332,7 +19851,7 @@
         <v>3.78731481481481E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -19343,7 +19862,7 @@
         <v>4.26774074074074E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -19366,15 +19885,16 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19415,7 +19935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -19456,7 +19976,7 @@
         <v>-0.32604643047474502</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -19497,7 +20017,7 @@
         <v>0.35694649591670002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -19538,7 +20058,7 @@
         <v>0.53243709075012002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -19579,7 +20099,7 @@
         <v>9.1100084289808606E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -19620,7 +20140,7 @@
         <v>0.30365745737180899</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -19661,7 +20181,7 @@
         <v>0.26403947437744701</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -19702,7 +20222,7 @@
         <v>0.12116849129122299</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -19743,7 +20263,7 @@
         <v>0.32535799655235198</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -19784,7 +20304,7 @@
         <v>3.1099949464852401E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -19825,7 +20345,7 @@
         <v>0.104068677602955</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -19866,7 +20386,7 @@
         <v>0.30430945014801303</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -19907,7 +20427,7 @@
         <v>-0.15379200317733499</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -19948,7 +20468,7 @@
         <v>0.51543422405749795</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -19989,7 +20509,7 @@
         <v>-8.5144698501825305E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -20030,7 +20550,7 @@
         <v>0.55768574104067403</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -20071,7 +20591,7 @@
         <v>0.63487518430660395</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -20112,7 +20632,7 @@
         <v>0.33630399990656001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -20153,7 +20673,7 @@
         <v>-0.52826505027037995</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -20194,7 +20714,7 @@
         <v>0.32263596204929701</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -20235,7 +20755,7 @@
         <v>0.18857380752069799</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -20276,7 +20796,7 @@
         <v>-2.7986157581772201E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -20317,7 +20837,7 @@
         <v>0.59006941810084002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -20358,7 +20878,7 @@
         <v>0.56119517030760302</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -20399,7 +20919,7 @@
         <v>2.3482888181858799E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -20440,7 +20960,7 @@
         <v>0.16809781922532299</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -20481,7 +21001,7 @@
         <v>0.34152208448509502</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -20522,7 +21042,7 @@
         <v>5.2584084026158003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -20563,7 +21083,7 @@
         <v>-0.14297043311449101</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -20604,7 +21124,7 @@
         <v>0.51054170079738004</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -20645,7 +21165,7 @@
         <v>-9.0876626711185196E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -20686,7 +21206,7 @@
         <v>0.22432375796375301</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -20727,7 +21247,7 @@
         <v>0.48045310770883098</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -20768,7 +21288,7 @@
         <v>0.120032558037327</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -20809,7 +21329,7 @@
         <v>-7.5223371751281298E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -20850,7 +21370,7 @@
         <v>0.17389096082212099</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -20891,7 +21411,7 @@
         <v>-7.9719262393354598E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -20932,7 +21452,7 @@
         <v>3.6908073101834901E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -20973,7 +21493,7 @@
         <v>-0.25284225243179298</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -21014,7 +21534,7 @@
         <v>0.29112937012510598</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -21055,7 +21575,7 @@
         <v>0.82946109111809296</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -21096,7 +21616,7 @@
         <v>0.42676039537080102</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -21137,7 +21657,7 @@
         <v>-0.27800483608464199</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -21178,7 +21698,7 @@
         <v>1.5847239461461899</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -21219,7 +21739,7 @@
         <v>7.7602089050904802E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -21260,7 +21780,7 @@
         <v>0.77442598149877095</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -21301,7 +21821,7 @@
         <v>-0.372486230853939</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -21342,7 +21862,7 @@
         <v>0.60459958189827301</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -21383,7 +21903,7 @@
         <v>-0.895060177931429</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -21424,7 +21944,7 @@
         <v>0.36443184936025702</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -21465,7 +21985,7 @@
         <v>0.22387010320387801</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -21506,7 +22026,7 @@
         <v>0.25371016912475503</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -21547,7 +22067,7 @@
         <v>6.4406903974412996E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -21588,7 +22108,7 @@
         <v>-0.56852587480525096</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -21629,7 +22149,7 @@
         <v>0.47812106458214398</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -21670,7 +22190,7 @@
         <v>-0.594199311201422</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -21711,7 +22231,7 @@
         <v>0.47805985433373399</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -21752,7 +22272,7 @@
         <v>-0.35202264891224899</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -21793,7 +22313,7 @@
         <v>0.58437897667608896</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -21834,7 +22354,7 @@
         <v>-3.0223111279135201E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -21875,7 +22395,7 @@
         <v>9.0840354681292299E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -21916,7 +22436,7 @@
         <v>0.62866549743518796</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -21957,7 +22477,7 @@
         <v>0.54844291867664696</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -21998,7 +22518,7 @@
         <v>-1.00704574906337</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -22039,7 +22559,7 @@
         <v>0.49803163508671999</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -22080,7 +22600,7 @@
         <v>1.15220209646737</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -22121,7 +22641,7 @@
         <v>0.50667910722103304</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -22162,7 +22682,7 @@
         <v>0.128406546589517</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -22203,7 +22723,7 @@
         <v>0.83455986853142605</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -22244,7 +22764,7 @@
         <v>0.45639891585553</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -22285,7 +22805,7 @@
         <v>0.39349811895565301</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -22326,7 +22846,7 @@
         <v>0.221039095844665</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -22367,7 +22887,7 @@
         <v>0.19245306272886201</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -22408,7 +22928,7 @@
         <v>1.0977430948406099</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -22449,7 +22969,7 @@
         <v>0.281811422048386</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -22490,7 +23010,7 @@
         <v>0.75214077166743198</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -22531,7 +23051,7 @@
         <v>0.61815826029911303</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -22572,7 +23092,7 @@
         <v>1.2060611002919099</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -22613,7 +23133,7 @@
         <v>0.95669479065037899</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -22654,7 +23174,7 @@
         <v>1.2550307500346001</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
